--- a/data/Inputs/excel/Demand_dependancy.xlsx
+++ b/data/Inputs/excel/Demand_dependancy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\programming_practise\VISSIM\Demand dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\programming_practise\VISSIM_work\VISSIM\data\inputs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611C5B1-6697-4B2E-9442-2D037102E847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B9679-235E-4D32-8CB8-C2F1E0B2D15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,47 +488,16 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -538,9 +507,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,6 +538,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +729,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1200" baseline="0"/>
-            <a:t>Ie. dont add new rows or columns. You may change the names and other fields coloured in </a:t>
+            <a:t>Ie. dont add new rows or columns. Change the names and other fields coloured in </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1200" b="1" baseline="0">
@@ -737,7 +737,18 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>purple.</a:t>
+            <a:t>purple, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>according to your use case.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1041,12 +1052,12 @@
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="14" customWidth="1"/>
-    <col min="2" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="51" customWidth="1"/>
+    <col min="2" max="3" width="7" style="37" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="37" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="37" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="37" customWidth="1"/>
     <col min="9" max="11" width="12.28515625" style="14" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="14" customWidth="1"/>
     <col min="13" max="14" width="7" style="13" customWidth="1"/>
@@ -1056,125 +1067,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="44"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="44"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="35" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="39" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="28"/>
+      <c r="L4" s="46"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>23</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="42">
         <v>0.69333333333333336</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G16" si="0">A5&amp;"_"&amp;E5&amp;"_"&amp;"green"</f>
         <v>23_2_green</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="38">
         <v>48</v>
       </c>
       <c r="I5" s="3"/>
@@ -1201,26 +1212,26 @@
       <c r="A6" s="22">
         <v>65</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="32">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="42">
         <v>0.2857142857142857</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>65_2_green</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="38">
         <v>48</v>
       </c>
       <c r="I6" s="3"/>
@@ -1241,26 +1252,26 @@
       <c r="A7" s="22">
         <v>66</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19">
         <v>7</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="42">
         <v>0.5641025641025641</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>66_7_green</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="38">
         <v>96</v>
       </c>
       <c r="I7" s="3"/>
@@ -1281,26 +1292,26 @@
       <c r="A8" s="23">
         <v>84</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="42">
         <v>0.97435897435897434</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>84_3_green</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="38">
         <v>96</v>
       </c>
       <c r="I8" s="3"/>
@@ -1321,26 +1332,26 @@
       <c r="A9" s="23">
         <v>84</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="32">
         <v>3</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="19">
         <v>8</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="42">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>84_8_green</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="38">
         <v>96</v>
       </c>
       <c r="I9" s="3"/>
@@ -1361,26 +1372,26 @@
       <c r="A10" s="23">
         <v>185</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="32">
         <v>2</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="42">
         <v>0.33333333333333331</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>185_2_green</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="38">
         <v>48</v>
       </c>
       <c r="I10" s="3"/>
@@ -1401,26 +1412,26 @@
       <c r="A11" s="23">
         <v>186</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="42">
         <v>0.84615384615384615</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>186_3_green</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="38">
         <v>96</v>
       </c>
       <c r="I11" s="3"/>
@@ -1441,26 +1452,26 @@
       <c r="A12" s="23">
         <v>187</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="19">
         <v>2</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="42">
         <v>0.20779220779220781</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>187_2_green</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="38">
         <v>48</v>
       </c>
       <c r="I12" s="3"/>
@@ -1481,26 +1492,26 @@
       <c r="A13" s="23">
         <v>62</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19">
         <v>2</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="42">
         <v>0.32</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>62_2_green</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="38">
         <v>48</v>
       </c>
       <c r="I13" s="3"/>
@@ -1521,26 +1532,26 @@
       <c r="A14" s="23">
         <v>192</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="42">
         <v>0.41558441558441561</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>192_2_green</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="38">
         <v>48</v>
       </c>
       <c r="I14" s="3"/>
@@ -1561,26 +1572,26 @@
       <c r="A15" s="23">
         <v>193</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="32">
         <v>2</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="19">
         <v>6</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="42">
         <v>0.35064935064935071</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>193_6_green</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="38">
         <v>48</v>
       </c>
       <c r="I15" s="3"/>
@@ -1601,26 +1612,26 @@
       <c r="A16" s="24">
         <v>41</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="32">
         <v>3</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="20">
         <v>6</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="42">
         <v>0.81081081081081086</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>41_6_green</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="38">
         <v>96</v>
       </c>
       <c r="I16" s="3"/>
@@ -1639,13 +1650,13 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
@@ -1653,13 +1664,13 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="57"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="57"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="53"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
@@ -1667,13 +1678,13 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="57"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="53"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
@@ -1681,13 +1692,13 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="57"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
@@ -1695,13 +1706,13 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="53"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
@@ -1709,13 +1720,13 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="57"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
@@ -1723,13 +1734,13 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
@@ -1737,13 +1748,13 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="57"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
@@ -1751,13 +1762,13 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
@@ -1765,13 +1776,13 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="57"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
@@ -1779,13 +1790,13 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
@@ -1793,13 +1804,13 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
@@ -1807,13 +1818,13 @@
     </row>
     <row r="29" spans="1:60" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
@@ -1869,13 +1880,13 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="57"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="53"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
@@ -1883,13 +1894,13 @@
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="57"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
@@ -1897,13 +1908,13 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="57"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="53"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
@@ -1911,13 +1922,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="57"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
@@ -1925,13 +1936,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="57"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="10"/>
@@ -1939,13 +1950,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="57"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
@@ -1953,13 +1964,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="57"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="53"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
@@ -1967,13 +1978,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="57"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
@@ -1981,13 +1992,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="57"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="53"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="10"/>
@@ -1995,13 +2006,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="57"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
@@ -2009,13 +2020,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="57"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="53"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
@@ -2023,13 +2034,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="57"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
@@ -2037,13 +2048,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
@@ -2051,13 +2062,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="53"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
@@ -2065,13 +2076,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="49"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="49"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -2079,13 +2090,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="49"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="49"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -2093,13 +2104,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="49"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="49"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -2107,13 +2118,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="49"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="49"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -2121,13 +2132,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="49"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="49"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2135,13 +2146,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="49"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -2149,13 +2160,13 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="49"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="49"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -2163,44 +2174,44 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="49"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
     <row r="72" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F72" s="58"/>
+      <c r="F72" s="44"/>
     </row>
     <row r="73" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F73" s="58"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F74" s="58"/>
+      <c r="F74" s="44"/>
     </row>
     <row r="75" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F75" s="58"/>
-      <c r="H75" s="54"/>
+      <c r="F75" s="44"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F76" s="58"/>
+      <c r="F76" s="44"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F77" s="58"/>
+      <c r="F77" s="44"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F78" s="58"/>
+      <c r="F78" s="44"/>
     </row>
     <row r="80" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="H80" s="55"/>
+      <c r="H80" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/data/Inputs/excel/Demand_dependancy.xlsx
+++ b/data/Inputs/excel/Demand_dependancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\programming_practise\VISSIM_work\VISSIM\data\inputs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B9679-235E-4D32-8CB8-C2F1E0B2D15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1866A9A2-513B-4154-9900-15DE54F18269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:BH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2233,7 @@
       <formula>-0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D16" xr:uid="{7697CC59-4FFB-4E32-BDCA-87774B32985C}">
       <formula1>"Pedestrian, Traffic, Traffic &amp; Ped"</formula1>
     </dataValidation>
@@ -2248,9 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/Inputs/excel/Demand_dependancy.xlsx
+++ b/data/Inputs/excel/Demand_dependancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\programming_practise\VISSIM_work\VISSIM\data\inputs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1866A9A2-513B-4154-9900-15DE54F18269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05874C47-6B07-4D2F-9814-D2B8D9019088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:BH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="32">
         <v>2</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G16" si="0">A5&amp;"_"&amp;E5&amp;"_"&amp;"green"</f>
-        <v>23_2_green</v>
+        <v>20_2_green</v>
       </c>
       <c r="H5" s="38">
         <v>48</v>
